--- a/Excel/ExclusiveDevourConfig.xlsx
+++ b/Excel/ExclusiveDevourConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <t>4005,4010</t>
   </si>
   <si>
-    <t>150,150</t>
+    <t>150,30</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1049,7 @@
   <dimension ref="C3:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelRow="5" outlineLevelCol="5"/>

--- a/Excel/ExclusiveDevourConfig.xlsx
+++ b/Excel/ExclusiveDevourConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
     <t>Id</t>
   </si>
@@ -51,6 +51,24 @@
   </si>
   <si>
     <t>150,30</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>300,60</t>
+  </si>
+  <si>
+    <t>600,120</t>
+  </si>
+  <si>
+    <t>1200,240</t>
+  </si>
+  <si>
+    <t>2400,480</t>
+  </si>
+  <si>
+    <t>4800,960</t>
   </si>
 </sst>
 </file>
@@ -1046,13 +1064,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:F6"/>
+  <dimension ref="A3:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="17.375" style="1" customWidth="1"/>
@@ -1114,6 +1132,91 @@
       </c>
       <c r="F6" s="4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>6</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/ExclusiveDevourConfig.xlsx
+++ b/Excel/ExclusiveDevourConfig.xlsx
@@ -56,19 +56,19 @@
     <t>#</t>
   </si>
   <si>
-    <t>300,60</t>
-  </si>
-  <si>
-    <t>600,120</t>
-  </si>
-  <si>
-    <t>1200,240</t>
-  </si>
-  <si>
-    <t>2400,480</t>
-  </si>
-  <si>
-    <t>4800,960</t>
+    <t>450,90</t>
+  </si>
+  <si>
+    <t>1350,270</t>
+  </si>
+  <si>
+    <t>4050,810</t>
+  </si>
+  <si>
+    <t>12150,1230</t>
+  </si>
+  <si>
+    <t>36450,3690</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1067,7 @@
   <dimension ref="A3:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="5"/>
